--- a/opm_hero_property/heroes/41.xlsx
+++ b/opm_hero_property/heroes/41.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11164</v>
       </c>
       <c r="D4" t="n">
-        <v>11164</v>
+        <v>11477</v>
       </c>
       <c r="E4" t="n">
         <v>264</v>
@@ -1304,7 +1305,7 @@
         <v>12483</v>
       </c>
       <c r="D5" t="n">
-        <v>12483</v>
+        <v>13152</v>
       </c>
       <c r="E5" t="n">
         <v>396</v>
@@ -1411,7 +1412,7 @@
         <v>14035</v>
       </c>
       <c r="D6" t="n">
-        <v>14035</v>
+        <v>15122</v>
       </c>
       <c r="E6" t="n">
         <v>543</v>
@@ -1518,7 +1519,7 @@
         <v>15820</v>
       </c>
       <c r="D7" t="n">
-        <v>15820</v>
+        <v>19234</v>
       </c>
       <c r="E7" t="n">
         <v>1018</v>
@@ -1625,7 +1626,7 @@
         <v>17838</v>
       </c>
       <c r="D8" t="n">
-        <v>17838</v>
+        <v>24922</v>
       </c>
       <c r="E8" t="n">
         <v>1507</v>
@@ -1732,7 +1733,7 @@
         <v>20166</v>
       </c>
       <c r="D9" t="n">
-        <v>20166</v>
+        <v>32580</v>
       </c>
       <c r="E9" t="n">
         <v>1990</v>
@@ -1839,7 +1840,7 @@
         <v>21408</v>
       </c>
       <c r="D10" t="n">
-        <v>21408</v>
+        <v>38958</v>
       </c>
       <c r="E10" t="n">
         <v>2352</v>
@@ -1946,7 +1947,7 @@
         <v>22882</v>
       </c>
       <c r="D11" t="n">
-        <v>22882</v>
+        <v>46788</v>
       </c>
       <c r="E11" t="n">
         <v>2744</v>
@@ -2053,7 +2054,7 @@
         <v>25987</v>
       </c>
       <c r="D12" t="n">
-        <v>25987</v>
+        <v>60725</v>
       </c>
       <c r="E12" t="n">
         <v>3377</v>
@@ -2160,7 +2161,7 @@
         <v>26607</v>
       </c>
       <c r="D13" t="n">
-        <v>26607</v>
+        <v>62695</v>
       </c>
       <c r="E13" t="n">
         <v>3799</v>
@@ -2267,7 +2268,7 @@
         <v>27228</v>
       </c>
       <c r="D14" t="n">
-        <v>27228</v>
+        <v>64665</v>
       </c>
       <c r="E14" t="n">
         <v>4221</v>
@@ -2374,7 +2375,7 @@
         <v>27849</v>
       </c>
       <c r="D15" t="n">
-        <v>27849</v>
+        <v>66635</v>
       </c>
       <c r="E15" t="n">
         <v>4643</v>
@@ -2481,7 +2482,7 @@
         <v>28470</v>
       </c>
       <c r="D16" t="n">
-        <v>28470</v>
+        <v>68605</v>
       </c>
       <c r="E16" t="n">
         <v>5065</v>
@@ -2588,7 +2589,7 @@
         <v>29091</v>
       </c>
       <c r="D17" t="n">
-        <v>29091</v>
+        <v>70575</v>
       </c>
       <c r="E17" t="n">
         <v>5487</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29450.1811176</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5281.5915</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2115.998102</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>41</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41854.818291</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7333.6428</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3408.50934</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>41</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>77534.96901679999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12310.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7653.14844</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>41</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>77534.96901679999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12310.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7653.14844</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X5" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1420</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>41</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>70081.9720328</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12310.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6416.93124</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>670</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>41</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>288051.5552008</v>
+      </c>
+      <c r="U7" t="n">
+        <v>41797.752</v>
+      </c>
+      <c r="V7" t="n">
+        <v>34084.73732499999</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X7" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2040</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>41</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>253775.1302968</v>
+      </c>
+      <c r="U8" t="n">
+        <v>41797.752</v>
+      </c>
+      <c r="V8" t="n">
+        <v>27526.660075</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>41</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>265200.6052648</v>
+      </c>
+      <c r="U9" t="n">
+        <v>41797.752</v>
+      </c>
+      <c r="V9" t="n">
+        <v>29712.685825</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X9" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1540</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>41</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>276626.0802328</v>
+      </c>
+      <c r="U10" t="n">
+        <v>41797.752</v>
+      </c>
+      <c r="V10" t="n">
+        <v>31898.711575</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X10" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>41</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>288051.5552008</v>
+      </c>
+      <c r="U11" t="n">
+        <v>41797.752</v>
+      </c>
+      <c r="V11" t="n">
+        <v>34084.73732499999</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X11" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2040</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>41</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>288051.5552008</v>
+      </c>
+      <c r="U12" t="n">
+        <v>41797.752</v>
+      </c>
+      <c r="V12" t="n">
+        <v>34084.73732499999</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X12" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1970</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>41</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>433210.9708228</v>
+      </c>
+      <c r="U13" t="n">
+        <v>60853.0392</v>
+      </c>
+      <c r="V13" t="n">
+        <v>58508.27577</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2110</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>41</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>433210.9708228</v>
+      </c>
+      <c r="U14" t="n">
+        <v>60853.0392</v>
+      </c>
+      <c r="V14" t="n">
+        <v>58508.27577</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2180</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>41</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1081040.0347014</v>
+      </c>
+      <c r="U15" t="n">
+        <v>139812.244</v>
+      </c>
+      <c r="V15" t="n">
+        <v>170019.215</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>41</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5548700.2895652</v>
+      </c>
+      <c r="U16" t="n">
+        <v>750982.0963</v>
+      </c>
+      <c r="V16" t="n">
+        <v>841525.9637750001</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>3020</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>41</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>9087516.4217066</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1223603.5077</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1370451.7833</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3930</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>41</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>237233.5744242</v>
+      </c>
+      <c r="U18" t="n">
+        <v>42636.1344</v>
+      </c>
+      <c r="V18" t="n">
+        <v>25115.250664</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>670</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>41</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>321472.2217192</v>
+      </c>
+      <c r="U19" t="n">
+        <v>52328.5148</v>
+      </c>
+      <c r="V19" t="n">
+        <v>36965.556664</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X19" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1470</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>41</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>417128.4741992</v>
+      </c>
+      <c r="U20" t="n">
+        <v>62430.4717</v>
+      </c>
+      <c r="V20" t="n">
+        <v>54294.44652500001</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X20" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1790</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>41</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>483003.7909506001</v>
+      </c>
+      <c r="U21" t="n">
+        <v>69483.7016</v>
+      </c>
+      <c r="V21" t="n">
+        <v>67218.29226500001</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2180</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>41</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>559936.77266</v>
+      </c>
+      <c r="U22" t="n">
+        <v>81777.678</v>
+      </c>
+      <c r="V22" t="n">
+        <v>83148.66829500001</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>41</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>716766.4120354</v>
+      </c>
+      <c r="U23" t="n">
+        <v>106966.2231</v>
+      </c>
+      <c r="V23" t="n">
+        <v>115471.442575</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>3020</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/41.xlsx
+++ b/opm_hero_property/heroes/41.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29450.1811176</v>
+        <v>5683577.2895652</v>
       </c>
       <c r="U2" t="n">
-        <v>5281.5915</v>
+        <v>774710.0963</v>
       </c>
       <c r="V2" t="n">
-        <v>2115.998102</v>
+        <v>863365.9637750001</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="AB2" t="n">
-        <v>1350</v>
+        <v>3020</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11707956.489545</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1696799.60619645</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16010558.74574145</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41854.818291</v>
+        <v>716766.4120354</v>
       </c>
       <c r="U3" t="n">
-        <v>7333.6428</v>
+        <v>106966.2231</v>
       </c>
       <c r="V3" t="n">
-        <v>3408.50934</v>
+        <v>115471.442575</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="AB3" t="n">
-        <v>1350</v>
+        <v>3020</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1326526.715165</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>194510.73106665</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2135921.64623165</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>77534.96901679999</v>
+        <v>7645.7716</v>
       </c>
       <c r="U4" t="n">
-        <v>12310.2</v>
+        <v>1642.5915</v>
       </c>
       <c r="V4" t="n">
-        <v>7653.14844</v>
+        <v>562.4642</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>1350</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19477.1721</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>24027.1221</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>77534.96901679999</v>
+        <v>20546.9935</v>
       </c>
       <c r="U5" t="n">
-        <v>12310.2</v>
+        <v>4124.6428</v>
       </c>
       <c r="V5" t="n">
-        <v>7653.14844</v>
+        <v>1716.114</v>
       </c>
       <c r="W5" t="n">
-        <v>1500</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>1420</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49768.78432</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61757.13432</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>70081.9720328</v>
+        <v>58833.53879999999</v>
       </c>
       <c r="U6" t="n">
-        <v>12310.2</v>
+        <v>10370.2</v>
       </c>
       <c r="V6" t="n">
-        <v>6416.93124</v>
+        <v>5624.724</v>
       </c>
       <c r="W6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>670</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>119539.0818</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9157</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>167702.5818</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>288051.5552008</v>
+        <v>58833.53879999999</v>
       </c>
       <c r="U7" t="n">
-        <v>41797.752</v>
+        <v>10370.2</v>
       </c>
       <c r="V7" t="n">
-        <v>34084.73732499999</v>
+        <v>5624.724</v>
       </c>
       <c r="W7" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA7" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB7" t="n">
-        <v>2040</v>
+        <v>520</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>119539.0818</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>167940.5818</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>253775.1302968</v>
+        <v>59081.9720328</v>
       </c>
       <c r="U8" t="n">
-        <v>41797.752</v>
+        <v>10370.2</v>
       </c>
       <c r="V8" t="n">
-        <v>27526.660075</v>
+        <v>5665.93124</v>
       </c>
       <c r="W8" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA8" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB8" t="n">
-        <v>1290</v>
+        <v>520</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>119539.0818</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>485.3748628</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>168425.9566628</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>265200.6052648</v>
+        <v>251843.5828</v>
       </c>
       <c r="U9" t="n">
-        <v>41797.752</v>
+        <v>41954.752</v>
       </c>
       <c r="V9" t="n">
-        <v>29712.685825</v>
+        <v>27435.0575</v>
       </c>
       <c r="W9" t="n">
         <v>2300</v>
@@ -7600,7 +7808,7 @@
         <v>3600</v>
       </c>
       <c r="AB9" t="n">
-        <v>1540</v>
+        <v>1290</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>543429.952225</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>711565.9522250001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>276626.0802328</v>
+        <v>252986.1302968</v>
       </c>
       <c r="U10" t="n">
-        <v>41797.752</v>
+        <v>41954.752</v>
       </c>
       <c r="V10" t="n">
-        <v>31898.711575</v>
+        <v>27653.660075</v>
       </c>
       <c r="W10" t="n">
         <v>2300</v>
@@ -7711,7 +7943,7 @@
         <v>3600</v>
       </c>
       <c r="AB10" t="n">
-        <v>1790</v>
+        <v>1290</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>543429.952225</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2399.51230305</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>713965.46452805</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>288051.5552008</v>
+        <v>264411.6052648</v>
       </c>
       <c r="U11" t="n">
-        <v>41797.752</v>
+        <v>41954.752</v>
       </c>
       <c r="V11" t="n">
-        <v>34084.73732499999</v>
+        <v>29839.685825</v>
       </c>
       <c r="W11" t="n">
         <v>2300</v>
@@ -7822,7 +8078,7 @@
         <v>3600</v>
       </c>
       <c r="AB11" t="n">
-        <v>2040</v>
+        <v>1540</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>543429.952225</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>26832.13533355</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>738398.0875585501</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,27 +8181,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>288051.5552008</v>
+        <v>275837.0802328</v>
       </c>
       <c r="U12" t="n">
-        <v>41797.752</v>
+        <v>41954.752</v>
       </c>
       <c r="V12" t="n">
-        <v>34084.73732499999</v>
+        <v>32025.711575</v>
       </c>
       <c r="W12" t="n">
         <v>2300</v>
       </c>
       <c r="X12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -7933,7 +8213,7 @@
         <v>3600</v>
       </c>
       <c r="AB12" t="n">
-        <v>1970</v>
+        <v>1790</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>543429.952225</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>51264.75836405001</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>762830.71058905</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,23 +8320,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>433210.9708228</v>
+        <v>287262.5552008</v>
       </c>
       <c r="U13" t="n">
-        <v>60853.0392</v>
+        <v>41954.752</v>
       </c>
       <c r="V13" t="n">
-        <v>58508.27577</v>
+        <v>34211.73732499999</v>
       </c>
       <c r="W13" t="n">
         <v>2300</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8044,31 +8348,55 @@
         <v>3600</v>
       </c>
       <c r="AB13" t="n">
-        <v>2110</v>
+        <v>2040</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>543429.952225</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>75697.38139455</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>787263.33361955</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,23 +8455,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>433210.9708228</v>
+        <v>287262.5552008</v>
       </c>
       <c r="U14" t="n">
-        <v>60853.0392</v>
+        <v>41954.752</v>
       </c>
       <c r="V14" t="n">
-        <v>58508.27577</v>
+        <v>34211.73732499999</v>
       </c>
       <c r="W14" t="n">
         <v>2300</v>
       </c>
       <c r="X14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8155,31 +8483,55 @@
         <v>3600</v>
       </c>
       <c r="AB14" t="n">
-        <v>2180</v>
+        <v>1970</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>543429.952225</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>75697.38139455</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38508</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>787025.33361955</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,23 +8590,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1081040.0347014</v>
+        <v>435710.9708228</v>
       </c>
       <c r="U15" t="n">
-        <v>139812.244</v>
+        <v>61661.0392</v>
       </c>
       <c r="V15" t="n">
-        <v>170019.215</v>
+        <v>59282.27577</v>
       </c>
       <c r="W15" t="n">
         <v>2300</v>
       </c>
       <c r="X15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8266,31 +8618,55 @@
         <v>3600</v>
       </c>
       <c r="AB15" t="n">
-        <v>2460</v>
+        <v>2110</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>837179.0655300001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>119948.5114503</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111462</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1216078.7269803</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,23 +8725,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5548700.2895652</v>
+        <v>435710.9708228</v>
       </c>
       <c r="U16" t="n">
-        <v>750982.0963</v>
+        <v>61661.0392</v>
       </c>
       <c r="V16" t="n">
-        <v>841525.9637750001</v>
+        <v>59282.27577</v>
       </c>
       <c r="W16" t="n">
         <v>2300</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8377,31 +8753,55 @@
         <v>3600</v>
       </c>
       <c r="AB16" t="n">
-        <v>3020</v>
+        <v>2180</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>837179.0655300001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>119948.5114503</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111700</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1216316.7269803</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,23 +8860,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>9087516.4217066</v>
+        <v>1118535.0347014</v>
       </c>
       <c r="U17" t="n">
-        <v>1223603.5077</v>
+        <v>146669.244</v>
       </c>
       <c r="V17" t="n">
-        <v>1370451.7833</v>
+        <v>176652.215</v>
       </c>
       <c r="W17" t="n">
         <v>2300</v>
       </c>
       <c r="X17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8488,64 +8888,88 @@
         <v>3600</v>
       </c>
       <c r="AB17" t="n">
-        <v>3930</v>
+        <v>2460</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1919116.9285</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>284153.9260514</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>688289.2</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3161526.5545514</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>237233.5744242</v>
+        <v>5683577.2895652</v>
       </c>
       <c r="U18" t="n">
-        <v>42636.1344</v>
+        <v>774710.0963</v>
       </c>
       <c r="V18" t="n">
-        <v>25115.250664</v>
+        <v>863365.9637750001</v>
       </c>
       <c r="W18" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AA18" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="AB18" t="n">
-        <v>670</v>
+        <v>3020</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11707956.489545</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1696799.60619645</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16010558.74574145</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,37 +9116,37 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>321472.2217192</v>
+        <v>9397234.4217066</v>
       </c>
       <c r="U19" t="n">
-        <v>52328.5148</v>
+        <v>1277636.5077</v>
       </c>
       <c r="V19" t="n">
-        <v>36965.556664</v>
+        <v>1419683.7833</v>
       </c>
       <c r="W19" t="n">
         <v>2300</v>
       </c>
       <c r="X19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
@@ -8710,31 +9158,55 @@
         <v>3600</v>
       </c>
       <c r="AB19" t="n">
-        <v>1470</v>
+        <v>3930</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18999453.73373</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2746893.4950816</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3474140.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26396329.5788116</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>417128.4741992</v>
+        <v>226233.5744242</v>
       </c>
       <c r="U20" t="n">
-        <v>62430.4717</v>
+        <v>40696.1344</v>
       </c>
       <c r="V20" t="n">
-        <v>54294.44652500001</v>
+        <v>24364.250664</v>
       </c>
       <c r="W20" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="X20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA20" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB20" t="n">
-        <v>1790</v>
+        <v>520</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>570397.59986</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2386.9432422</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32014.4</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>652341.8431022</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>483003.7909506001</v>
+        <v>298372.2217192</v>
       </c>
       <c r="U21" t="n">
-        <v>69483.7016</v>
+        <v>48254.5148</v>
       </c>
       <c r="V21" t="n">
-        <v>67218.29226500001</v>
+        <v>35388.756664</v>
       </c>
       <c r="W21" t="n">
-        <v>2300</v>
+        <v>1250</v>
       </c>
       <c r="X21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AA21" t="n">
-        <v>3600</v>
+        <v>2250</v>
       </c>
       <c r="AB21" t="n">
-        <v>2180</v>
+        <v>1065</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>677512.65712</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>32934.9175372</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>64028.8</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>842773.4746572</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,37 +9521,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>559936.77266</v>
+        <v>417128.4741992</v>
       </c>
       <c r="U22" t="n">
-        <v>81777.678</v>
+        <v>62430.4717</v>
       </c>
       <c r="V22" t="n">
-        <v>83148.66829500001</v>
+        <v>54294.44652500001</v>
       </c>
       <c r="W22" t="n">
         <v>2300</v>
       </c>
       <c r="X22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9043,31 +9563,55 @@
         <v>3600</v>
       </c>
       <c r="AB22" t="n">
-        <v>2460</v>
+        <v>1790</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>860438.130805</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>83464.81564295001</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>91895.2</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1173449.79644795</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,23 +9670,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>716766.4120354</v>
+        <v>483003.7909506001</v>
       </c>
       <c r="U23" t="n">
-        <v>106966.2231</v>
+        <v>69483.7016</v>
       </c>
       <c r="V23" t="n">
-        <v>115471.442575</v>
+        <v>67218.29226500001</v>
       </c>
       <c r="W23" t="n">
         <v>2300</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9154,31 +9698,325 @@
         <v>3600</v>
       </c>
       <c r="AB23" t="n">
-        <v>3020</v>
+        <v>2180</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>940387.9092650001</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>135527.50324935</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>142670</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1363218.01251435</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>41</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>559936.77266</v>
+      </c>
+      <c r="U24" t="n">
+        <v>81777.678</v>
+      </c>
+      <c r="V24" t="n">
+        <v>83148.66829500001</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1066198.794075</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>154822.69948125</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>239067.6</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1617531.09355625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>41</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>716766.4120354</v>
+      </c>
+      <c r="U25" t="n">
+        <v>106966.2231</v>
+      </c>
+      <c r="V25" t="n">
+        <v>115471.442575</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>3020</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1326526.715165</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>194510.73106665</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2135921.64623165</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/41.xlsx
+++ b/opm_hero_property/heroes/41.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>41</v>
@@ -6835,17 +6855,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5683577.2895652</v>
+        <v>6629705.565421199</v>
       </c>
       <c r="U2" t="n">
-        <v>774710.0963</v>
+        <v>936828.9440039999</v>
       </c>
       <c r="V2" t="n">
-        <v>863365.9637750001</v>
+        <v>992922.9279750001</v>
       </c>
       <c r="W2" t="n">
         <v>2300</v>
@@ -6884,33 +6904,41 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11707956.489545</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1696799.60619645</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
       <c r="AS2" t="n">
-        <v>16010558.74574145</v>
+        <v>2947100.5191636</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1873130.35</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18820259.61490505</v>
       </c>
     </row>
     <row r="3">
@@ -6947,7 +6975,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>41</v>
@@ -6970,17 +6998,17 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>716766.4120354</v>
+        <v>823316.0671474</v>
       </c>
       <c r="U3" t="n">
-        <v>106966.2231</v>
+        <v>125223.000948</v>
       </c>
       <c r="V3" t="n">
-        <v>115471.442575</v>
+        <v>130365.245175</v>
       </c>
       <c r="W3" t="n">
         <v>2300</v>
@@ -7019,33 +7047,41 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1326526.715165</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>194510.73106665</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
       <c r="AS3" t="n">
-        <v>2135921.64623165</v>
+        <v>537910.9372132</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>212104.65</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2454082.43344485</v>
       </c>
     </row>
     <row r="4">
@@ -7082,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>41</v>
@@ -7105,17 +7141,17 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7645.7716</v>
+        <v>8143.7716</v>
       </c>
       <c r="U4" t="n">
-        <v>1642.5915</v>
+        <v>1727.5915</v>
       </c>
       <c r="V4" t="n">
-        <v>562.4642</v>
+        <v>630.4642</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7154,25 +7190,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19477.1721</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7180,7 +7212,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>24027.1221</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1475.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25502.6221</v>
       </c>
     </row>
     <row r="5">
@@ -7217,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>41</v>
@@ -7240,17 +7284,17 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>3,2,2,2,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20546.9935</v>
+        <v>35192.9935</v>
       </c>
       <c r="U5" t="n">
-        <v>4124.6428</v>
+        <v>6633.6428</v>
       </c>
       <c r="V5" t="n">
-        <v>1716.114</v>
+        <v>3721.114</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7289,25 +7333,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49768.78432</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7315,7 +7355,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61757.13432</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43486.85000000001</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>105243.98432</v>
       </c>
     </row>
     <row r="6">
@@ -7352,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>41</v>
@@ -7375,17 +7427,17 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>4,3,2,2,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>58833.53879999999</v>
+        <v>121625.5388</v>
       </c>
       <c r="U6" t="n">
-        <v>10370.2</v>
+        <v>21129.2</v>
       </c>
       <c r="V6" t="n">
-        <v>5624.724</v>
+        <v>14222.724</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7424,33 +7476,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>119539.0818</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9157</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>167702.5818</v>
+      <c r="AT6" t="n">
+        <v>186467.6</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>354170.1818</v>
       </c>
     </row>
     <row r="7">
@@ -7487,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>41</v>
@@ -7510,17 +7570,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>4,3,2,2,0,1,0,0</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>58833.53879999999</v>
+        <v>121625.5388</v>
       </c>
       <c r="U7" t="n">
-        <v>10370.2</v>
+        <v>21129.2</v>
       </c>
       <c r="V7" t="n">
-        <v>5624.724</v>
+        <v>14222.724</v>
       </c>
       <c r="W7" t="n">
         <v>1000</v>
@@ -7559,33 +7619,41 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>119539.0818</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>167940.5818</v>
+      <c r="AT7" t="n">
+        <v>186467.6</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>354408.1818</v>
       </c>
     </row>
     <row r="8">
@@ -7622,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>41</v>
@@ -7645,17 +7713,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,1,1,0,0</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>59081.9720328</v>
+        <v>121873.9720328</v>
       </c>
       <c r="U8" t="n">
-        <v>10370.2</v>
+        <v>21129.2</v>
       </c>
       <c r="V8" t="n">
-        <v>5665.93124</v>
+        <v>14263.93124</v>
       </c>
       <c r="W8" t="n">
         <v>1000</v>
@@ -7694,33 +7762,41 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>119539.0818</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>485.3748628</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>168425.9566628</v>
+      <c r="AT8" t="n">
+        <v>186467.6</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>354893.5566628</v>
       </c>
     </row>
     <row r="9">
@@ -7757,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>41</v>
@@ -7780,35 +7856,35 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>5,3,3,3,0,2,1,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>251843.5828</v>
+        <v>437667.828628</v>
       </c>
       <c r="U9" t="n">
-        <v>41954.752</v>
+        <v>72436.98952</v>
       </c>
       <c r="V9" t="n">
-        <v>27435.0575</v>
+        <v>51855.660075</v>
       </c>
       <c r="W9" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA9" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB9" t="n">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7829,33 +7905,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>543429.952225</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>711565.9522250001</v>
+        <v>44172.04952225</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>436916.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1248256.10174725</v>
       </c>
     </row>
     <row r="10">
@@ -7892,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>41</v>
@@ -7915,35 +7999,35 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>5,3,3,3,1,2,1,0</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>252986.1302968</v>
+        <v>496305.9228950464</v>
       </c>
       <c r="U10" t="n">
-        <v>41954.752</v>
+        <v>81766.28914272001</v>
       </c>
       <c r="V10" t="n">
-        <v>27653.660075</v>
+        <v>58508.79937770001</v>
       </c>
       <c r="W10" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA10" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB10" t="n">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7964,33 +8048,45 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>543429.952225</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2399.51230305</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
       <c r="AS10" t="n">
-        <v>713965.46452805</v>
+        <v>44172.04952225</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>436916.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>253213.9003512895</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1409521.914401589</v>
       </c>
     </row>
     <row r="11">
@@ -8027,7 +8123,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>41</v>
@@ -8050,35 +8146,35 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,2,2,1,0</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>264411.6052648</v>
+        <v>572111.7764124705</v>
       </c>
       <c r="U11" t="n">
-        <v>41954.752</v>
+        <v>90476.97714272</v>
       </c>
       <c r="V11" t="n">
-        <v>29839.685825</v>
+        <v>67860.1735912</v>
       </c>
       <c r="W11" t="n">
-        <v>2300</v>
+        <v>2310</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA11" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB11" t="n">
-        <v>1540</v>
+        <v>1580</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8099,33 +8195,45 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>543429.952225</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>26832.13533355</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
       <c r="AS11" t="n">
-        <v>738398.0875585501</v>
+        <v>44172.04952225</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>436916.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>418898.7797658385</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1599639.416846639</v>
       </c>
     </row>
     <row r="12">
@@ -8162,7 +8270,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>41</v>
@@ -8185,35 +8293,35 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,3,2,1,0</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>275837.0802328</v>
+        <v>666097.6699080768</v>
       </c>
       <c r="U12" t="n">
-        <v>41954.752</v>
+        <v>99948.74229991999</v>
       </c>
       <c r="V12" t="n">
-        <v>32025.711575</v>
+        <v>80857.4433443</v>
       </c>
       <c r="W12" t="n">
-        <v>2300</v>
+        <v>2320</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AA12" t="n">
-        <v>3600</v>
+        <v>3620</v>
       </c>
       <c r="AB12" t="n">
-        <v>1790</v>
+        <v>1870</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8234,33 +8342,45 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>543429.952225</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>51264.75836405001</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
       <c r="AS12" t="n">
-        <v>762830.71058905</v>
+        <v>44172.04952225</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>436916.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>629099.0308959497</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1834272.29100725</v>
       </c>
     </row>
     <row r="13">
@@ -8297,7 +8417,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>41</v>
@@ -8320,35 +8440,35 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,4,2,1,0</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>287262.5552008</v>
+        <v>773835.0958504047</v>
       </c>
       <c r="U13" t="n">
-        <v>41954.752</v>
+        <v>112797.00629992</v>
       </c>
       <c r="V13" t="n">
-        <v>34211.73732499999</v>
+        <v>93988.7541758</v>
       </c>
       <c r="W13" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA13" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB13" t="n">
-        <v>2040</v>
+        <v>2240</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8369,33 +8489,45 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>543429.952225</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>75697.38139455</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
       <c r="AS13" t="n">
-        <v>787263.33361955</v>
+        <v>44172.04952225</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>436916.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>877359.3926889026</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2106965.275830703</v>
       </c>
     </row>
     <row r="14">
@@ -8432,7 +8564,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>41</v>
@@ -8455,35 +8587,35 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,4,2,0,0</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>287262.5552008</v>
+        <v>905412.0554781824</v>
       </c>
       <c r="U14" t="n">
-        <v>41954.752</v>
+        <v>127611.89326848</v>
       </c>
       <c r="V14" t="n">
-        <v>34211.73732499999</v>
+        <v>104423.7720576</v>
       </c>
       <c r="W14" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA14" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB14" t="n">
-        <v>1970</v>
+        <v>2170</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8504,33 +8636,45 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>543429.952225</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>75697.38139455</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38508</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
       <c r="AS14" t="n">
-        <v>787025.33361955</v>
+        <v>43934.04952225</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>436916.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1171160.425220094</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2400528.308361894</v>
       </c>
     </row>
     <row r="15">
@@ -8567,7 +8711,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>41</v>
@@ -8590,35 +8734,35 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,2,0</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>435710.9708228</v>
+        <v>1456563.596164608</v>
       </c>
       <c r="U15" t="n">
-        <v>61661.0392</v>
+        <v>214413.46938288</v>
       </c>
       <c r="V15" t="n">
-        <v>59282.27577</v>
+        <v>180345.72775373</v>
       </c>
       <c r="W15" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AA15" t="n">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="AB15" t="n">
-        <v>2110</v>
+        <v>2510</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8639,33 +8783,45 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>837179.0655300001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>119948.5114503</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111462</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS15" t="n">
-        <v>1216078.7269803</v>
+        <v>128189.0813106</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>799420.9</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1956011.261199528</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3988237.969490428</v>
       </c>
     </row>
     <row r="16">
@@ -8702,7 +8858,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>41</v>
@@ -8725,35 +8881,35 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,2,1</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>435710.9708228</v>
+        <v>1483991.012404909</v>
       </c>
       <c r="U16" t="n">
-        <v>61661.0392</v>
+        <v>218401.572102624</v>
       </c>
       <c r="V16" t="n">
-        <v>59282.27577</v>
+        <v>183620.61692349</v>
       </c>
       <c r="W16" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA16" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB16" t="n">
-        <v>2180</v>
+        <v>2980</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8774,33 +8930,45 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>837179.0655300001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>119948.5114503</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111700</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
       <c r="AS16" t="n">
-        <v>1216316.7269803</v>
+        <v>128427.0813106</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>799420.9</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>2030987.198932182</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4063451.907223082</v>
       </c>
     </row>
     <row r="17">
@@ -8837,7 +9005,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>41</v>
@@ -8860,35 +9028,35 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,3,3,3</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1118535.0347014</v>
+        <v>2762658.156741213</v>
       </c>
       <c r="U17" t="n">
-        <v>146669.244</v>
+        <v>384529.2448307201</v>
       </c>
       <c r="V17" t="n">
-        <v>176652.215</v>
+        <v>375650.3204</v>
       </c>
       <c r="W17" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA17" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB17" t="n">
-        <v>2460</v>
+        <v>3260</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8909,33 +9077,45 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1919116.9285</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>284153.9260514</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>688289.2</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
       <c r="AS17" t="n">
-        <v>3161526.5545514</v>
+        <v>765020.87714</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1277283.1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3077981.456681781</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7593522.788373182</v>
       </c>
     </row>
     <row r="18">
@@ -8972,7 +9152,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>41</v>
@@ -8995,35 +9175,35 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5683577.2895652</v>
+        <v>9879286.762673644</v>
       </c>
       <c r="U18" t="n">
-        <v>774710.0963</v>
+        <v>1315918.359396472</v>
       </c>
       <c r="V18" t="n">
-        <v>863365.9637750001</v>
+        <v>1333249.57747605</v>
       </c>
       <c r="W18" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA18" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB18" t="n">
-        <v>3020</v>
+        <v>3820</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9044,33 +9224,45 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11707956.489545</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1696799.60619645</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
       <c r="AS18" t="n">
-        <v>16010558.74574145</v>
+        <v>2947100.5191636</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1873130.35</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7824576.398091538</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26644836.01299659</v>
       </c>
     </row>
     <row r="19">
@@ -9107,7 +9299,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>41</v>
@@ -9130,35 +9322,35 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9397234.4217066</v>
+        <v>17066810.21009918</v>
       </c>
       <c r="U19" t="n">
-        <v>1277636.5077</v>
+        <v>2376600.55688432</v>
       </c>
       <c r="V19" t="n">
-        <v>1419683.7833</v>
+        <v>2387745.7429952</v>
       </c>
       <c r="W19" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA19" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB19" t="n">
-        <v>3930</v>
+        <v>4730</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9179,33 +9371,45 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18999453.73373</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2746893.4950816</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3474140.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
       <c r="AS19" t="n">
-        <v>26396329.5788116</v>
+        <v>6323934.5100595</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1873130.35</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>16098259.33595228</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47217513.57482339</v>
       </c>
     </row>
     <row r="20">
@@ -9242,7 +9446,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>41</v>
@@ -9265,17 +9469,17 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,1,1,0,0</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>226233.5744242</v>
+        <v>233304.5744242</v>
       </c>
       <c r="U20" t="n">
-        <v>40696.1344</v>
+        <v>41907.1344</v>
       </c>
       <c r="V20" t="n">
-        <v>24364.250664</v>
+        <v>25352.250664</v>
       </c>
       <c r="W20" t="n">
         <v>1000</v>
@@ -9314,33 +9518,41 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>570397.59986</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2386.9432422</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32014.4</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>652341.8431022</v>
+      <c r="AT20" t="n">
+        <v>21107.9</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>673449.7431022</v>
       </c>
     </row>
     <row r="21">
@@ -9377,7 +9589,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>41</v>
@@ -9400,17 +9612,17 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,2,2,0,0</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>298372.2217192</v>
+        <v>312955.3551312</v>
       </c>
       <c r="U21" t="n">
-        <v>48254.5148</v>
+        <v>50774.849948</v>
       </c>
       <c r="V21" t="n">
-        <v>35388.756664</v>
+        <v>37374.970688</v>
       </c>
       <c r="W21" t="n">
         <v>1250</v>
@@ -9449,33 +9661,41 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>677512.65712</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>32934.9175372</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>64028.8</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="n">
-        <v>842773.4746572</v>
+        <v>70795.67657119999</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36627.3</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>886167.6512283999</v>
       </c>
     </row>
     <row r="22">
@@ -9512,7 +9732,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>41</v>
@@ -9535,35 +9755,35 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,3,2,1,0</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>417128.4741992</v>
+        <v>547290.8175953344</v>
       </c>
       <c r="U22" t="n">
-        <v>62430.4717</v>
+        <v>80754.187756777</v>
       </c>
       <c r="V22" t="n">
-        <v>54294.44652500001</v>
+        <v>69822.90073420001</v>
       </c>
       <c r="W22" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA22" t="n">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="AB22" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9584,33 +9804,45 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>860438.130805</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>83464.81564295001</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>91895.2</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
       <c r="AS22" t="n">
-        <v>1173449.79644795</v>
+        <v>100491.33130805</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49475.10000000001</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>288413.3645827457</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1519934.392338746</v>
       </c>
     </row>
     <row r="23">
@@ -9647,7 +9879,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>41</v>
@@ -9670,35 +9902,35 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,2,1</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>483003.7909506001</v>
+        <v>706295.6757587197</v>
       </c>
       <c r="U23" t="n">
-        <v>69483.7016</v>
+        <v>103489.414862544</v>
       </c>
       <c r="V23" t="n">
-        <v>67218.29226500001</v>
+        <v>94867.55398498502</v>
       </c>
       <c r="W23" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA23" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB23" t="n">
-        <v>2180</v>
+        <v>2980</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9719,33 +9951,45 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>940387.9092650001</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>135527.50324935</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>142670</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
       <c r="AS23" t="n">
-        <v>1363218.01251435</v>
+        <v>161461.2581853</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>90516.35000000001</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>510006.953024287</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1982532.573723937</v>
       </c>
     </row>
     <row r="24">
@@ -9782,7 +10026,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>41</v>
@@ -9805,35 +10049,35 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,3,3,3</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>559936.77266</v>
+        <v>891577.2612811599</v>
       </c>
       <c r="U24" t="n">
-        <v>81777.678</v>
+        <v>132484.16443984</v>
       </c>
       <c r="V24" t="n">
-        <v>83148.66829500001</v>
+        <v>125592.852018725</v>
       </c>
       <c r="W24" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA24" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB24" t="n">
-        <v>2460</v>
+        <v>3260</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9854,33 +10098,45 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1066198.794075</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>154822.69948125</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>239067.6</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
       <c r="AS24" t="n">
-        <v>1617531.09355625</v>
+        <v>281682.551763</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>144627.6</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>740726.7497044748</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2545500.395023725</v>
       </c>
     </row>
     <row r="25">
@@ -9917,7 +10173,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>41</v>
@@ -9940,35 +10196,35 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,5,5,5</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>716766.4120354</v>
+        <v>1528741.539915331</v>
       </c>
       <c r="U25" t="n">
-        <v>106966.2231</v>
+        <v>222725.068385028</v>
       </c>
       <c r="V25" t="n">
-        <v>115471.442575</v>
+        <v>220775.024787525</v>
       </c>
       <c r="W25" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA25" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="AB25" t="n">
-        <v>3020</v>
+        <v>3820</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -9989,33 +10245,45 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1326526.715165</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>194510.73106665</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
       <c r="AS25" t="n">
-        <v>2135921.64623165</v>
+        <v>537910.9372132</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>212104.65</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1900445.970855443</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4354528.404300293</v>
       </c>
     </row>
   </sheetData>
